--- a/servers/data/1solo_gamble_sequence.xlsx
+++ b/servers/data/1solo_gamble_sequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/samba/Office/Users/hySeon/Behavioral_contagion/web_study/web 개발 참고자료/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B369E8-8B36-774B-80F2-5091DF94DF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943E01F-AA96-774E-A12F-ECC716CE3309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16440" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16440" activeTab="3" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="random 1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEE6ADB-2CBA-8042-81F0-3FE182AB7687}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -488,10 +488,10 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -519,16 +519,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -536,13 +536,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0.25</v>
@@ -570,16 +570,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -587,13 +587,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0.25</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -607,10 +607,10 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -624,10 +624,10 @@
         <v>48</v>
       </c>
       <c r="C12">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -672,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -689,13 +689,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -723,13 +723,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0.75</v>
@@ -757,7 +757,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -791,13 +791,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -808,13 +808,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>0.5</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -842,13 +842,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>0.75</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>90</v>
       </c>
       <c r="E26">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -893,7 +893,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="E28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -910,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="E29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -930,10 +930,10 @@
         <v>90</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -944,13 +944,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -967,7 +967,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1001,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1021,10 +1021,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1103,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>90</v>
       </c>
       <c r="E8">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0.25</v>
@@ -1154,13 +1154,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.75</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1256,13 +1256,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1307,13 +1307,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1324,13 +1324,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>0.25</v>
@@ -1344,10 +1344,10 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1358,13 +1358,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>0.5</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1375,16 +1375,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1426,13 +1426,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0.75</v>
@@ -1443,16 +1443,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1460,16 +1460,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1494,13 +1494,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>0.5</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1585,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>48</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1619,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -1636,16 +1636,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1653,13 +1653,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0.25</v>
@@ -1670,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1687,13 +1687,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>48</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1738,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1755,16 +1755,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1789,13 +1789,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0.25</v>
@@ -1806,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>90</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1857,13 +1857,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0.75</v>
@@ -1874,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1891,13 +1891,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1908,13 +1908,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -1945,10 +1945,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1962,10 +1962,10 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1976,13 +1976,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0.5</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2010,7 +2010,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>25</v>
       </c>
       <c r="E29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2027,7 +2027,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>25</v>
       </c>
       <c r="E30">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2044,13 +2044,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0.75</v>
@@ -2066,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9194DB48-F073-B54B-90CC-84FB8F474AA6}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2101,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0.75</v>
@@ -2121,10 +2121,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2135,16 +2135,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2152,13 +2152,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>90</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2237,16 +2237,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2254,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -2274,10 +2274,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2291,10 +2291,10 @@
         <v>48</v>
       </c>
       <c r="C13">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2325,10 +2325,10 @@
         <v>90</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2339,13 +2339,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>0.25</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2365,7 +2365,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2373,7 +2373,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2390,13 +2390,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>0.25</v>
@@ -2407,7 +2407,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2424,13 +2424,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>0.5</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2444,10 +2444,10 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2461,10 +2461,10 @@
         <v>90</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2475,13 +2475,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0.75</v>
@@ -2492,13 +2492,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -2509,13 +2509,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2529,10 +2529,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2563,10 +2563,10 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2594,16 +2594,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
